--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,7 +599,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/organizationIdSystems</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/organizationIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -753,7 +753,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/organizationType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/organizationType</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1846,7 +1846,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -451,7 +451,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -544,7 +544,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -630,7 +630,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-ballot/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -951,7 +951,7 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1015,7 +1015,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -1182,7 +1182,7 @@
     <t>The use of an address (home / work / etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/address-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -1203,7 +1203,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/5.0.0-ballot/location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/5.0.0-snapshot3/location.html#) resource).</t>
   </si>
   <si>
     <t>physical</t>
@@ -1215,7 +1215,7 @@
     <t>The type of an address (physical / postal).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/address-type|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Address.type</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A grouping of people or organizations with a common purpose</t>
@@ -2092,13 +2096,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2164,27 +2168,27 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>28</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2195,7 +2199,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -2204,19 +2208,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2266,13 +2270,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -2298,10 +2302,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2312,7 +2316,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -2321,16 +2325,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2381,19 +2385,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -2413,10 +2417,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2427,28 +2431,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2498,19 +2502,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -2530,10 +2534,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2544,7 +2548,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2556,16 +2560,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2591,13 +2595,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2615,19 +2619,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2647,21 +2651,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2673,16 +2677,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2732,25 +2736,25 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2764,14 +2768,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2790,16 +2794,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2849,7 +2853,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2867,7 +2871,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2881,14 +2885,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2907,16 +2911,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2966,7 +2970,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2978,13 +2982,13 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2998,14 +3002,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3018,25 +3022,25 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -3085,7 +3089,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3097,13 +3101,13 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -3117,10 +3121,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3128,7 +3132,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3140,20 +3144,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -3202,7 +3206,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3211,33 +3215,33 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3248,7 +3252,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -3260,13 +3264,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3317,13 +3321,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -3335,7 +3339,7 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -3349,14 +3353,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3375,16 +3379,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3422,19 +3426,19 @@
         <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3446,13 +3450,13 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>76</v>
@@ -3466,10 +3470,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3480,31 +3484,31 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3529,11 +3533,11 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3551,25 +3555,25 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3583,10 +3587,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3597,7 +3601,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3606,22 +3610,22 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3646,11 +3650,11 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3668,25 +3672,25 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3700,10 +3704,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3711,10 +3715,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3723,22 +3727,22 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3751,7 +3755,7 @@
         <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>76</v>
@@ -3763,11 +3767,11 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3785,31 +3789,31 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3817,10 +3821,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3828,10 +3832,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3840,19 +3844,19 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3866,7 +3870,7 @@
         <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>76</v>
@@ -3902,31 +3906,31 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>76</v>
@@ -3934,10 +3938,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3948,7 +3952,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3957,16 +3961,16 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4017,31 +4021,31 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>76</v>
@@ -4049,10 +4053,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4063,7 +4067,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -4072,19 +4076,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4134,31 +4138,31 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>76</v>
@@ -4166,10 +4170,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4180,117 +4184,117 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4310,22 +4314,22 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4350,11 +4354,11 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4372,7 +4376,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4384,30 +4388,30 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4418,7 +4422,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4427,22 +4431,22 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4491,31 +4495,31 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4523,10 +4527,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4549,19 +4553,19 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4610,7 +4614,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4622,13 +4626,13 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4642,10 +4646,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4656,7 +4660,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4665,20 +4669,20 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4727,25 +4731,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4759,10 +4763,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4785,19 +4789,19 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4846,7 +4850,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4858,13 +4862,13 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4878,10 +4882,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4892,7 +4896,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4904,13 +4908,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4961,13 +4965,13 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4979,7 +4983,7 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4993,14 +4997,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5019,16 +5023,16 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5066,19 +5070,19 @@
         <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5090,13 +5094,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -5110,10 +5114,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5124,7 +5128,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -5133,19 +5137,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5171,11 +5175,11 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -5193,19 +5197,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -5225,10 +5229,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5248,19 +5252,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5310,7 +5314,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5322,7 +5326,7 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -5342,10 +5346,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5365,16 +5369,16 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5413,17 +5417,17 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5435,7 +5439,7 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -5455,13 +5459,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
@@ -5480,16 +5484,16 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5540,7 +5544,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5552,7 +5556,7 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
@@ -5572,10 +5576,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5586,7 +5590,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5598,13 +5602,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5655,13 +5659,13 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
@@ -5673,7 +5677,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5687,14 +5691,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5713,16 +5717,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5760,19 +5764,19 @@
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5784,13 +5788,13 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5804,10 +5808,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5815,10 +5819,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5827,16 +5831,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5848,7 +5852,7 @@
         <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>76</v>
@@ -5863,11 +5867,11 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5885,31 +5889,31 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5917,10 +5921,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5931,7 +5935,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5940,22 +5944,22 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -6004,31 +6008,31 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -6036,10 +6040,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6050,31 +6054,31 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6099,11 +6103,11 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -6121,31 +6125,31 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>76</v>
@@ -6153,10 +6157,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6167,7 +6171,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -6176,19 +6180,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6238,25 +6242,25 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6270,10 +6274,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6284,7 +6288,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -6293,16 +6297,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6353,31 +6357,31 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6385,13 +6389,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>76</v>
@@ -6410,16 +6414,16 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6470,7 +6474,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6482,7 +6486,7 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6502,10 +6506,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6516,7 +6520,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6528,13 +6532,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6585,13 +6589,13 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
@@ -6603,7 +6607,7 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6617,14 +6621,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6643,16 +6647,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6690,19 +6694,19 @@
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6714,13 +6718,13 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6734,10 +6738,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6745,10 +6749,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6757,16 +6761,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6778,7 +6782,7 @@
         <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>76</v>
@@ -6793,11 +6797,11 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6815,31 +6819,31 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6847,10 +6851,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6861,7 +6865,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6870,22 +6874,22 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6934,31 +6938,31 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -6966,10 +6970,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6980,31 +6984,31 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -7029,11 +7033,11 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -7051,31 +7055,31 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>76</v>
@@ -7083,10 +7087,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7097,7 +7101,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -7106,19 +7110,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7168,25 +7172,25 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7200,10 +7204,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7214,7 +7218,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -7223,16 +7227,16 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7283,31 +7287,31 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7315,13 +7319,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>76</v>
@@ -7340,16 +7344,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7400,7 +7404,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7412,7 +7416,7 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -7432,10 +7436,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7446,7 +7450,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7458,13 +7462,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7515,13 +7519,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -7533,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7547,14 +7551,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7573,16 +7577,16 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7620,19 +7624,19 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7644,13 +7648,13 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7664,10 +7668,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7675,10 +7679,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7687,16 +7691,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7708,7 +7712,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7723,11 +7727,11 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7745,31 +7749,31 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7777,10 +7781,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7791,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7800,22 +7804,22 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7864,31 +7868,31 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>76</v>
@@ -7896,10 +7900,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7910,31 +7914,31 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7959,11 +7963,11 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7981,31 +7985,31 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>76</v>
@@ -8013,10 +8017,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8027,7 +8031,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -8036,19 +8040,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8098,25 +8102,25 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -8130,10 +8134,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8144,7 +8148,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -8153,16 +8157,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8213,31 +8217,31 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>76</v>
@@ -8245,10 +8249,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8256,10 +8260,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8268,19 +8272,19 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8330,19 +8334,19 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -8362,10 +8366,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8376,7 +8380,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8388,13 +8392,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8445,13 +8449,13 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
@@ -8463,7 +8467,7 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8477,14 +8481,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8503,16 +8507,16 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8550,19 +8554,19 @@
         <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8574,13 +8578,13 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8594,10 +8598,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8608,31 +8612,31 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8642,10 +8646,10 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>76</v>
@@ -8657,13 +8661,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8681,31 +8685,31 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>76</v>
@@ -8713,10 +8717,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8727,7 +8731,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8736,19 +8740,19 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8759,10 +8763,10 @@
         <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>76</v>
@@ -8774,13 +8778,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8798,25 +8802,25 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8830,10 +8834,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8844,7 +8848,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8853,22 +8857,22 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8881,7 +8885,7 @@
         <v>76</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>76</v>
@@ -8917,25 +8921,25 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8949,10 +8953,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8960,7 +8964,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -8972,16 +8976,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8996,7 +9000,7 @@
         <v>76</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>76</v>
@@ -9032,7 +9036,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9044,19 +9048,19 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>76</v>
@@ -9064,21 +9068,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -9087,16 +9091,16 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9111,7 +9115,7 @@
         <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>76</v>
@@ -9147,31 +9151,31 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>76</v>
@@ -9179,21 +9183,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -9202,19 +9206,19 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9228,7 +9232,7 @@
         <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>76</v>
@@ -9264,25 +9268,25 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9296,21 +9300,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -9319,16 +9323,16 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9379,31 +9383,31 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>76</v>
@@ -9411,21 +9415,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -9434,16 +9438,16 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9458,7 +9462,7 @@
         <v>76</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>76</v>
@@ -9494,31 +9498,31 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>76</v>
@@ -9526,10 +9530,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9537,10 +9541,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -9549,19 +9553,19 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9575,7 +9579,7 @@
         <v>76</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>76</v>
@@ -9587,11 +9591,11 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -9609,31 +9613,31 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>76</v>
@@ -9641,10 +9645,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9655,7 +9659,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9664,20 +9668,20 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9690,7 +9694,7 @@
         <v>76</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>76</v>
@@ -9726,31 +9730,31 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>76</v>
@@ -9758,10 +9762,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9772,7 +9776,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9781,20 +9785,20 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9843,19 +9847,19 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9875,10 +9879,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9889,7 +9893,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9898,19 +9902,19 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9960,19 +9964,19 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
@@ -9992,10 +9996,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10006,7 +10010,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -10015,20 +10019,20 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10077,31 +10081,31 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>76</v>
@@ -10109,10 +10113,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10135,17 +10139,17 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -10194,7 +10198,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10206,13 +10210,13 @@
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -10226,10 +10230,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10252,13 +10256,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10309,7 +10313,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10321,13 +10325,13 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10341,10 +10345,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10355,7 +10359,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -10367,13 +10371,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10424,13 +10428,13 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
@@ -10442,7 +10446,7 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10456,14 +10460,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10482,16 +10486,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10541,7 +10545,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10553,13 +10557,13 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10573,14 +10577,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10593,25 +10597,25 @@
         <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10660,7 +10664,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10672,13 +10676,13 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10692,10 +10696,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10718,17 +10722,17 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10777,7 +10781,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10789,13 +10793,13 @@
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10809,10 +10813,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10820,10 +10824,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
@@ -10835,13 +10839,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10868,10 +10872,10 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10892,25 +10896,25 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10924,10 +10928,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10938,7 +10942,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10950,17 +10954,17 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -11009,25 +11013,25 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -11041,10 +11045,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11055,7 +11059,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -11067,13 +11071,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11124,25 +11128,25 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-snapshot3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -228,7 +228,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: HL7 v2 Mapping</t>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 V2 Mapping</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -262,16 +262,16 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
+    <t>administrative.group</t>
+  </si>
+  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
-    <t>Organization(classCode=ORG, determinerCode=INST)</t>
+    <t>Entity, Role, or Act,Organization(classCode=ORG, determinerCode=INST)</t>
   </si>
   <si>
     <t>ParticipantContactable</t>
-  </si>
-  <si>
-    <t>administrative.group</t>
   </si>
   <si>
     <t>Organization.id</t>
@@ -332,7 +332,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -354,13 +354,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -389,6 +389,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -415,6 +419,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -432,7 +440,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -451,11 +459,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -481,6 +489,9 @@
 </t>
   </si>
   <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
     <t>XON.10 / XON.3</t>
   </si>
   <si>
@@ -493,9 +504,6 @@
     <t>./Identifiers</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
     <t>Organization.identifier.id</t>
   </si>
   <si>
@@ -508,13 +516,17 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
     <t>Organization.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -545,10 +557,10 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -579,6 +591,9 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
@@ -594,7 +609,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -634,13 +649,17 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
@@ -728,7 +747,10 @@
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
-    <t>No equivalent in HL7 v2</t>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>No equivalent in HL7 V2</t>
   </si>
   <si>
     <t>.status</t>
@@ -738,9 +760,6 @@
   </si>
   <si>
     <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Organization.type</t>
@@ -763,13 +782,13 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/organizationType</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>No equivalent in v2</t>
   </si>
   <si>
     <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -818,6 +837,10 @@
     <t>Organization.description</t>
   </si>
   <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
     <t>Additional details about the Organization that could be displayed as further information to identify the Organization beyond its name</t>
   </si>
   <si>
@@ -874,6 +897,12 @@
     <t>If no purpose is defined, then these contact details may be used for any purpose.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/ValueSet/contactentity-type</t>
   </si>
   <si>
@@ -955,7 +984,10 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|5.0.0-snapshot3</t>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|5.0.0</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1019,7 +1051,10 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|5.0.0-snapshot3</t>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|5.0.0</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -1050,7 +1085,9 @@
     <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
   </si>
   <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.
+Ranks need not be unique.  E.g. it's possible to have multiple contacts with rank=1.  If the ranks have different systems or uses, this would be interpreted to mean "X is my most preferred phone number, Y is my most preferred email address" or "X is my preferred home email and Y is my preferred work email".  If the system and use for equally-ranked contacts are the same, then the level of preference is equivalent for both repetitions. 
+Ranks need not be sequential and not all repetitions must have a rank.  For example, it's possible to have 4 contacts with ranks of 2, 5 and two with no rank specified.  That would be interpreted to mean the first is preferred over the second and no preference stated for the remaining contacts.</t>
   </si>
   <si>
     <t>ContactPoint.rank</t>
@@ -1186,7 +1223,7 @@
     <t>The use of an address (home / work / etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|5.0.0-snapshot3</t>
+    <t>http://hl7.org/fhir/ValueSet/address-use|5.0.0</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -1207,7 +1244,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/5.0.0-snapshot3/location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R5/location.html#) resource).</t>
   </si>
   <si>
     <t>physical</t>
@@ -1219,7 +1256,7 @@
     <t>The type of an address (physical / postal).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|5.0.0-snapshot3</t>
+    <t>http://hl7.org/fhir/ValueSet/address-type|5.0.0</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -1510,7 +1547,7 @@
 </t>
   </si>
   <si>
-    <t>Qualifications, certifications, accreditations, licenses, training, etc pertaining to the provision of care</t>
+    <t>Qualifications, certifications, accreditations, licenses, training, etc. pertaining to the provision of care</t>
   </si>
   <si>
     <t>The official certifications, accreditations, training, designations and licenses that authorize and/or otherwise endorse the provision of care by the organization.@@ -1537,7 +1574,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1925,7 +1962,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="72.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1936,11 +1973,11 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.29296875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.29296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="218.1953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2177,10 +2214,10 @@
         <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AO2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -2745,7 +2782,7 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>99</v>
@@ -2754,10 +2791,10 @@
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>76</v>
@@ -2768,14 +2805,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2794,16 +2831,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2853,7 +2890,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2862,7 +2899,7 @@
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>76</v>
@@ -2871,10 +2908,10 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>76</v>
@@ -2885,14 +2922,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2911,16 +2948,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2970,7 +3007,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2982,16 +3019,16 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>76</v>
@@ -3002,14 +3039,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3028,19 +3065,19 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -3089,7 +3126,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3101,16 +3138,16 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>76</v>
@@ -3121,10 +3158,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3147,17 +3184,17 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -3206,7 +3243,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3215,33 +3252,33 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3267,10 +3304,10 @@
         <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3321,7 +3358,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3330,7 +3367,7 @@
         <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>76</v>
@@ -3339,10 +3376,10 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>76</v>
@@ -3353,14 +3390,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3379,16 +3416,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3426,19 +3463,19 @@
         <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3450,16 +3487,16 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>76</v>
@@ -3470,10 +3507,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3499,16 +3536,16 @@
         <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3533,11 +3570,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3555,7 +3594,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3570,13 +3609,13 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
@@ -3587,10 +3626,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3613,19 +3652,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3650,11 +3689,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3672,7 +3713,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3687,13 +3728,13 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>76</v>
@@ -3704,10 +3745,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3733,16 +3774,16 @@
         <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3755,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>76</v>
@@ -3767,11 +3808,11 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3789,7 +3830,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3804,27 +3845,27 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3847,16 +3888,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3870,7 +3911,7 @@
         <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>76</v>
@@ -3906,7 +3947,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3915,33 +3956,33 @@
         <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3964,13 +4005,13 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4021,7 +4062,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4036,27 +4077,27 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4079,16 +4120,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4138,7 +4179,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4153,27 +4194,27 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4196,70 +4237,70 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4274,27 +4315,27 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4317,19 +4358,19 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4354,29 +4395,29 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4391,27 +4432,27 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>243</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4434,19 +4475,19 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4495,7 +4536,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4504,33 +4545,33 @@
         <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4553,19 +4594,19 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4614,7 +4655,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4632,10 +4673,10 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -4646,10 +4687,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4672,17 +4713,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4731,7 +4772,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4749,10 +4790,10 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
@@ -4763,10 +4804,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4789,19 +4830,19 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4850,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4862,16 +4903,16 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4882,10 +4923,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4911,10 +4952,10 @@
         <v>89</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4965,7 +5006,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4974,7 +5015,7 @@
         <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4983,10 +5024,10 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4997,14 +5038,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5023,16 +5064,16 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5070,19 +5111,19 @@
         <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5094,16 +5135,16 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -5114,10 +5155,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5140,16 +5181,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5175,11 +5216,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -5197,7 +5240,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5229,10 +5272,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5255,16 +5298,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5314,7 +5357,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5346,10 +5389,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5372,13 +5415,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5417,17 +5460,17 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5459,13 +5502,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
@@ -5487,13 +5530,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5544,7 +5587,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5576,10 +5619,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5605,10 +5648,10 @@
         <v>89</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5659,7 +5702,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5668,7 +5711,7 @@
         <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -5677,10 +5720,10 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5691,14 +5734,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5717,16 +5760,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5764,19 +5807,19 @@
         <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5788,16 +5831,16 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5808,10 +5851,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5837,10 +5880,10 @@
         <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5852,7 +5895,7 @@
         <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>76</v>
@@ -5867,11 +5910,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5889,7 +5934,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5898,33 +5943,33 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5947,19 +5992,19 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -6008,7 +6053,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6017,33 +6062,33 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6069,16 +6114,16 @@
         <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6103,11 +6148,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -6125,7 +6172,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6140,27 +6187,27 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6183,16 +6230,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6242,7 +6289,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6257,13 +6304,13 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6274,10 +6321,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6300,13 +6347,13 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6357,7 +6404,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6372,30 +6419,30 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>76</v>
@@ -6417,13 +6464,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6474,7 +6521,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6506,10 +6553,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6535,10 +6582,10 @@
         <v>89</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6589,7 +6636,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6598,7 +6645,7 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
@@ -6607,10 +6654,10 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6621,14 +6668,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6647,16 +6694,16 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6694,19 +6741,19 @@
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6718,16 +6765,16 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6738,10 +6785,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6767,10 +6814,10 @@
         <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6782,7 +6829,7 @@
         <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>76</v>
@@ -6797,11 +6844,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6819,7 +6868,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6828,33 +6877,33 @@
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6877,19 +6926,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6938,7 +6987,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6947,33 +6996,33 @@
         <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6999,16 +7048,16 @@
         <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -7033,11 +7082,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -7055,7 +7106,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7070,27 +7121,27 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7113,16 +7164,16 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7172,7 +7223,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7187,13 +7238,13 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -7204,10 +7255,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7230,13 +7281,13 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7287,7 +7338,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7302,30 +7353,30 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>76</v>
@@ -7347,13 +7398,13 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7404,7 +7455,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7436,10 +7487,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7465,10 +7516,10 @@
         <v>89</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7519,7 +7570,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7528,7 +7579,7 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -7537,10 +7588,10 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7551,14 +7602,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7577,16 +7628,16 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7624,19 +7675,19 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7648,16 +7699,16 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7668,10 +7719,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7697,10 +7748,10 @@
         <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7712,7 +7763,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7727,11 +7778,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7749,7 +7802,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7758,33 +7811,33 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7807,19 +7860,19 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7868,7 +7921,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7877,33 +7930,33 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7929,16 +7982,16 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7963,11 +8016,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7985,7 +8040,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8000,27 +8055,27 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8043,16 +8098,16 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8102,7 +8157,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8117,13 +8172,13 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -8134,10 +8189,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8160,13 +8215,13 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8217,7 +8272,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8232,27 +8287,27 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8275,16 +8330,16 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8334,7 +8389,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8366,10 +8421,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8395,10 +8450,10 @@
         <v>89</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8449,7 +8504,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8458,7 +8513,7 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -8467,10 +8522,10 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8481,14 +8536,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8507,16 +8562,16 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8554,19 +8609,19 @@
         <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8578,16 +8633,16 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8598,10 +8653,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8627,16 +8682,16 @@
         <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8646,10 +8701,10 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>76</v>
@@ -8661,13 +8716,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8685,7 +8740,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8700,27 +8755,27 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>327</v>
+        <v>391</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8746,13 +8801,13 @@
         <v>107</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8763,10 +8818,10 @@
         <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>76</v>
@@ -8778,13 +8833,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8802,7 +8857,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8817,13 +8872,13 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -8834,10 +8889,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8860,19 +8915,19 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8885,7 +8940,7 @@
         <v>76</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>76</v>
@@ -8921,7 +8976,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8936,13 +8991,13 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -8953,10 +9008,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8979,13 +9034,13 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9000,7 +9055,7 @@
         <v>76</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>76</v>
@@ -9036,7 +9091,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9051,31 +9106,31 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9094,13 +9149,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9115,7 +9170,7 @@
         <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>76</v>
@@ -9151,7 +9206,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9166,31 +9221,31 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9209,16 +9264,16 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9232,7 +9287,7 @@
         <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>76</v>
@@ -9268,7 +9323,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9283,13 +9338,13 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>76</v>
+        <v>437</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9300,14 +9355,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9326,13 +9381,13 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9383,7 +9438,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9398,31 +9453,31 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>433</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>435</v>
+        <v>76</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9441,13 +9496,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9462,7 +9517,7 @@
         <v>76</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>76</v>
@@ -9498,7 +9553,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9513,27 +9568,27 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9556,16 +9611,16 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9579,7 +9634,7 @@
         <v>76</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>76</v>
@@ -9591,11 +9646,11 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -9613,7 +9668,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9628,27 +9683,27 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>452</v>
+        <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9671,17 +9726,17 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9694,7 +9749,7 @@
         <v>76</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>76</v>
@@ -9730,7 +9785,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9745,27 +9800,27 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>341</v>
+        <v>471</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9788,17 +9843,17 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
@@ -9847,7 +9902,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9879,10 +9934,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9905,16 +9960,16 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9964,7 +10019,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9996,10 +10051,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10022,17 +10077,17 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10081,7 +10136,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10096,27 +10151,27 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>476</v>
+        <v>236</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>76</v>
+        <v>486</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10139,17 +10194,17 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>76</v>
@@ -10198,7 +10253,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10216,10 +10271,10 @@
         <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -10230,10 +10285,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10256,13 +10311,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10313,7 +10368,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10328,13 +10383,13 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>486</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>159</v>
+        <v>496</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>76</v>
@@ -10345,10 +10400,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10371,13 +10426,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10428,7 +10483,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10437,7 +10492,7 @@
         <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>76</v>
@@ -10446,10 +10501,10 @@
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10460,14 +10515,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10486,16 +10541,16 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10545,7 +10600,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10557,16 +10612,16 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10577,14 +10632,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10603,19 +10658,19 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10664,7 +10719,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10676,16 +10731,16 @@
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10696,10 +10751,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10722,17 +10777,17 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -10781,7 +10836,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10799,10 +10854,10 @@
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>76</v>
@@ -10813,10 +10868,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10839,13 +10894,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10872,10 +10927,10 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10896,7 +10951,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>87</v>
@@ -10914,10 +10969,10 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>76</v>
@@ -10928,10 +10983,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10954,17 +11009,17 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -11013,7 +11068,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11031,10 +11086,10 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>76</v>
@@ -11045,10 +11100,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11071,13 +11126,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11128,7 +11183,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11146,10 +11201,10 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,9 +619,6 @@
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/organizationIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -777,6 +774,9 @@
   </si>
   <si>
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/organizationType</t>
@@ -1600,9 +1600,6 @@
   </si>
   <si>
     <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Specific qualification the organization has to provide a service.</t>
@@ -1963,7 +1960,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.51953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3808,29 +3805,31 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3848,24 +3847,24 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3888,16 +3887,16 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3911,52 +3910,52 @@
         <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>99</v>
@@ -3965,24 +3964,24 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4005,13 +4004,13 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4062,7 +4061,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4080,24 +4079,24 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4120,16 +4119,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4179,7 +4178,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4197,24 +4196,24 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4237,26 +4236,26 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O20" t="s" s="2">
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="P20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="R20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4315,27 +4314,27 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4361,16 +4360,16 @@
         <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4395,7 +4394,7 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
@@ -4417,7 +4416,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4475,7 +4474,7 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>250</v>
@@ -4594,7 +4593,7 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>259</v>
@@ -5992,7 +5991,7 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>320</v>
@@ -6080,7 +6079,7 @@
         <v>76</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36">
@@ -6347,7 +6346,7 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>348</v>
@@ -6431,7 +6430,7 @@
         <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39">
@@ -6926,7 +6925,7 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>320</v>
@@ -7014,7 +7013,7 @@
         <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44">
@@ -7281,7 +7280,7 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>348</v>
@@ -7365,7 +7364,7 @@
         <v>76</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47">
@@ -7860,7 +7859,7 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>320</v>
@@ -7948,7 +7947,7 @@
         <v>76</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -8215,7 +8214,7 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>348</v>
@@ -8299,7 +8298,7 @@
         <v>76</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55">
@@ -8915,7 +8914,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>404</v>
@@ -9034,7 +9033,7 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>413</v>
@@ -9149,7 +9148,7 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>422</v>
@@ -9264,7 +9263,7 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>431</v>
@@ -9381,7 +9380,7 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>440</v>
@@ -9496,7 +9495,7 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>448</v>
@@ -9611,7 +9610,7 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>456</v>
@@ -9726,7 +9725,7 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>466</v>
@@ -9812,7 +9811,7 @@
         <v>76</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68">
@@ -9843,7 +9842,7 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>473</v>
@@ -9960,7 +9959,7 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>478</v>
@@ -10077,7 +10076,7 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>483</v>
@@ -10154,7 +10153,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>486</v>
@@ -10426,7 +10425,7 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>158</v>
@@ -10927,10 +10926,10 @@
         <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10983,10 +10982,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11009,17 +11008,17 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -11068,7 +11067,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11100,10 +11099,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11126,13 +11125,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11183,7 +11182,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
